--- a/biology/Zoologie/Bleu_porte-queue_de_l'Ouest/Bleu_porte-queue_de_l'Ouest.xlsx
+++ b/biology/Zoologie/Bleu_porte-queue_de_l'Ouest/Bleu_porte-queue_de_l'Ouest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bleu_porte-queue_de_l%27Ouest</t>
+          <t>Bleu_porte-queue_de_l'Ouest</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cupido amyntula
 Le Bleu porte-queue de l'Ouest (Cupido amyntula) est une espèce nord-américaine de lépidoptères (papillons) de la famille des Lycaenidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bleu_porte-queue_de_l%27Ouest</t>
+          <t>Bleu_porte-queue_de_l'Ouest</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,17 +524,13 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cupido amyntula a été nommé par Jean-Baptiste Alphonse Dechauffour de Boisduval en 1852.
-Synonymes : Lycaena amyntula Boisduval, 1852 ; Everes amyntula[1].
-Noms vernaculaires
-Le Bleu porte-queue de l'Ouest se nomme Western Tailed Bluet en anglais.
-Sous-espèces
-Cupido amyntula albrighti (Clench, 1944) dans le Montana.
-Cupido amyntula herrii (Grinnell, 1901)
-Cupido amyntula nesiotes Emmel et Emmel, 1998, en Californie.
-Cupido amyntula valeriae (Clench, 1944) dans le Dakota du Sud[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cupido amyntula a été nommé par Jean-Baptiste Alphonse Dechauffour de Boisduval en 1852.
+Synonymes : Lycaena amyntula Boisduval, 1852 ; Everes amyntula.
+</t>
         </is>
       </c>
     </row>
@@ -532,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bleu_porte-queue_de_l%27Ouest</t>
+          <t>Bleu_porte-queue_de_l'Ouest</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,10 +555,88 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Bleu porte-queue de l'Ouest se nomme Western Tailed Bluet en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bleu_porte-queue_de_l'Ouest</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bleu_porte-queue_de_l%27Ouest</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cupido amyntula albrighti (Clench, 1944) dans le Montana.
+Cupido amyntula herrii (Grinnell, 1901)
+Cupido amyntula nesiotes Emmel et Emmel, 1998, en Californie.
+Cupido amyntula valeriae (Clench, 1944) dans le Dakota du Sud.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bleu_porte-queue_de_l'Ouest</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bleu_porte-queue_de_l%27Ouest</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un petit papillon qui présente un dimorphisme sexuel, le dessus du mâle est bleu bordé d'une fine marge noire et d'une frange blanche, avec aux postérieures un point noir et une fine queue, celui de la femelle est gris brun foncé ou bleu marginé de foncé, avec les mêmes frange blanche et fine queue.
 Le revers est gris pâle un peu suffusé de bleu et orné de lignes de petits points noirs cernés de blanc et aux postérieures une ou deux marques orange submarginales.
@@ -558,72 +644,184 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Bleu_porte-queue_de_l%27Ouest</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bleu_porte-queue_de_l%27Ouest</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bleu_porte-queue_de_l'Ouest</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bleu_porte-queue_de_l%27Ouest</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole de février à août, surtout en mai-juin en une ou deux générations[2]. Une seule génération en  mai-juin au Colorado[3]
-Il hiverne au stade de chenille. Serait souvent soigné par des fourmis[4].
-Plantes hôtes
-Les plantes hôtes de sa chenille sont des astragales (Astragalus), Astragalus douglasii, Astragalus flexuosus, Astragalus miser, Astragalus nuttallii, Astragalus whitneyi, des Lathyrus et des  Vicia, Vicia americana, Vicia californica, Vicia gigantea[1].
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole de février à août, surtout en mai-juin en une ou deux générations. Une seule génération en  mai-juin au Colorado
+Il hiverne au stade de chenille. Serait souvent soigné par des fourmis.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Bleu_porte-queue_de_l%27Ouest</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bleu_porte-queue_de_l%27Ouest</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bleu_porte-queue_de_l'Ouest</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bleu_porte-queue_de_l%27Ouest</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des astragales (Astragalus), Astragalus douglasii, Astragalus flexuosus, Astragalus miser, Astragalus nuttallii, Astragalus whitneyi, des Lathyrus et des  Vicia, Vicia americana, Vicia californica, Vicia gigantea.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bleu_porte-queue_de_l'Ouest</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bleu_porte-queue_de_l%27Ouest</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent dans le nord-est de l'Amérique du Nord, en Alaska, dans l'ouest du Canada et l'ouest des États-Unis. Au Canada il est présent du nord-est du Québec à l'île de Vancouver, dans le Yukon et les Territoires du Nord-Ouest[4]. Aux États-Unis il est présent dans tout l'ouest jusqu'en Californie, en Arizona et au Nouveau-Mexique[5].
-Biotope
-Il réside dans les lieux ouverts.
-Protection
-Pas de statut de protection particulier[5].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent dans le nord-est de l'Amérique du Nord, en Alaska, dans l'ouest du Canada et l'ouest des États-Unis. Au Canada il est présent du nord-est du Québec à l'île de Vancouver, dans le Yukon et les Territoires du Nord-Ouest. Aux États-Unis il est présent dans tout l'ouest jusqu'en Californie, en Arizona et au Nouveau-Mexique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bleu_porte-queue_de_l'Ouest</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bleu_porte-queue_de_l%27Ouest</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans les lieux ouverts.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Bleu_porte-queue_de_l'Ouest</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bleu_porte-queue_de_l%27Ouest</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
